--- a/xlsx/美国人口_intext.xlsx
+++ b/xlsx/美国人口_intext.xlsx
@@ -15,633 +15,636 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="210">
   <si>
     <t>美国人口</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA%E5%8F%A3</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国人口</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>德州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>加州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>犹他州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>纽约州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%90%A8%E8%AF%B8%E5%A1%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>马萨诸塞州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>伊利诺伊州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E5%92%8C%E7%94%9F%E8%82%B2%E7%8E%87</t>
+  </si>
+  <si>
+    <t>总和生育率</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%B8%9A%E5%8C%96%E5%9B%BD%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>工业化国家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3%E8%B0%83%E6%9F%A5%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国人口调查局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E6%95%B0%E6%B0%91%E6%97%8F</t>
+  </si>
+  <si>
+    <t>少数民族</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1890%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
+  </si>
+  <si>
+    <t>美国1890年人口普查</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1900%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
+  </si>
+  <si>
+    <t>美国1900年人口普查</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1910%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
+  </si>
+  <si>
+    <t>美国1910年人口普查</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1920%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
+  </si>
+  <si>
+    <t>美国1920年人口普查</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1930%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
+  </si>
+  <si>
+    <t>美国1930年人口普查</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1940%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
+  </si>
+  <si>
+    <t>美国1940年人口普查</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1950%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
+  </si>
+  <si>
+    <t>美国1950年人口普查</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1960%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
+  </si>
+  <si>
+    <t>美国1960年人口普查</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1970%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
+  </si>
+  <si>
+    <t>美国1970年人口普查</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1980%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
+  </si>
+  <si>
+    <t>美国1980年人口普查</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1990%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
+  </si>
+  <si>
+    <t>美国1990年人口普查</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B2000%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
+  </si>
+  <si>
+    <t>美国2000年人口普查</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B2010%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
+  </si>
+  <si>
+    <t>美国2010年人口普查</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%BA%E7%94%9F%E7%8E%87</t>
+  </si>
+  <si>
+    <t>出生率</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E4%BA%A1%E7%8E%87</t>
+  </si>
+  <si>
+    <t>死亡率</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%80%E8%BF%81%E7%A7%BB%E7%8E%87</t>
+  </si>
+  <si>
+    <t>净迁移率</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%AB%E6%AF%94%E4%BE%8B</t>
+  </si>
+  <si>
+    <t>性别比例</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A9%B4%E5%84%BF%E6%AD%BB%E4%BA%A1%E7%8E%87</t>
+  </si>
+  <si>
+    <t>婴儿死亡率</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%9D%87%E5%A3%BD%E5%91%BD</t>
+  </si>
+  <si>
+    <t>平均寿命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E8%82%B2%E7%8E%87</t>
+  </si>
+  <si>
+    <t>生育率</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%B3%A7%E9%A3%9F%E5%8F%8A%E8%BE%B2%E6%A5%AD%E7%B5%84%E7%B9%94</t>
+  </si>
+  <si>
+    <t>联合国粮食及农业组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8_(%E6%8C%89%E4%BA%BA%E5%8F%A3%E6%8E%92%E5%88%97)</t>
+  </si>
+  <si>
+    <t>美国城市列表 (按人口排列)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%9F%8E%E5%B8%82</t>
+  </si>
+  <si>
+    <t>全球城市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6</t>
+  </si>
+  <si>
+    <t>纽约</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%9F%B6</t>
+  </si>
+  <si>
+    <t>洛杉矶</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5</t>
+  </si>
+  <si>
+    <t>芝加哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
+  </si>
+  <si>
+    <t>纽约市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>加利福尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>伊利诺州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E5%A3%AB%E9%A0%93</t>
+  </si>
+  <si>
+    <t>休士顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>德克萨斯州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%9F%8E</t>
+  </si>
+  <si>
+    <t>费城</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>宾夕法尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%A4%E5%87%B0%E5%9F%8E</t>
+  </si>
+  <si>
+    <t>凤凰城</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>亚利桑那州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%AE%89%E4%B8%9C%E5%B0%BC%E5%A5%A5</t>
+  </si>
+  <si>
+    <t>圣安东尼奥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5_(%E7%BE%8E%E5%9C%8B%E5%8A%A0%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>圣地牙哥 (美国加州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%8B%89%E6%96%AF</t>
+  </si>
+  <si>
+    <t>达拉斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>圣荷西 (加利福尼亚州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%8D%E6%97%8F%E5%8F%8A%E6%B0%91%E6%97%8F</t>
+  </si>
+  <si>
+    <t>美国种族及民族</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%AF%94%E5%88%A9</t>
+  </si>
+  <si>
+    <t>伊比利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>拉丁美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%97%E6%95%99</t>
+  </si>
+  <si>
+    <t>美国宗教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E5%AE%97%E6%95%99</t>
+  </si>
+  <si>
+    <t>基督宗教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%95%99</t>
+  </si>
+  <si>
+    <t>新教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99</t>
+  </si>
+  <si>
+    <t>天主教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%AD%A3%E6%95%99</t>
+  </si>
+  <si>
+    <t>东正教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E5%A4%AA%E6%95%99</t>
+  </si>
+  <si>
+    <t>犹太教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E6%95%99</t>
+  </si>
+  <si>
+    <t>佛教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E6%95%99</t>
+  </si>
+  <si>
+    <t>伊斯兰教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80</t>
+  </si>
+  <si>
+    <t>语言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>西班牙语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E6%AD%90%E8%AA%9E%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>印欧语系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B7%E6%80%A7</t>
+  </si>
+  <si>
+    <t>男性</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7</t>
+  </si>
+  <si>
+    <t>女性</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E7%BE%8E%E5%9C%8B%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
+  </si>
+  <si>
+    <t>2010年美国人口普查</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Microsoft_Excel</t>
+  </si>
+  <si>
+    <t>Microsoft Excel</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Central_Intelligence_Agency</t>
+  </si>
+  <si>
+    <t>Central Intelligence Agency</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E6%B4%B2%E9%A2%98%E7%9B%AE</t>
+  </si>
+  <si>
+    <t>Template talk-美洲题目</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>联合国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>联合国会员国列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7%E4%BA%BA%E5%8F%A3</t>
+  </si>
+  <si>
+    <t>阿根廷人口</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A9%AC%E4%BA%BA%E5%8F%A3</t>
+  </si>
+  <si>
+    <t>巴哈马人口</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A9%AC%E4%BA%BA%E5%8F%A3</t>
+  </si>
+  <si>
+    <t>巴拿马人口</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E4%BA%BA%E5%8F%A3</t>
+  </si>
+  <si>
+    <t>巴西人口</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81%E4%BA%BA%E5%8F%A3</t>
+  </si>
+  <si>
+    <t>秘鲁人口</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E4%BA%BA%E5%8F%A3</t>
+  </si>
+  <si>
+    <t>哥伦比亚人口</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4%E4%BA%BA%E5%8F%A3</t>
+  </si>
+  <si>
+    <t>古巴人口</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E4%BA%BA%E5%8F%A3</t>
+  </si>
+  <si>
+    <t>加拿大人口</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E4%BA%BA%E5%8F%A3</t>
+  </si>
+  <si>
+    <t>墨西哥人口</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>属地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
+  </si>
+  <si>
+    <t>美国社会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>美国文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>美国政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>美国教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B6%93%E6%BF%9F</t>
+  </si>
+  <si>
+    <t>美国经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>美国医疗系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8A%82%E6%97%A5</t>
+  </si>
+  <si>
+    <t>美国节日</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%AF%AD%E8%A8%80</t>
+  </si>
+  <si>
+    <t>美国语言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA%E6%AC%8A</t>
+  </si>
+  <si>
+    <t>美国人权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E5%95%8F%E9%A1%8C</t>
+  </si>
+  <si>
+    <t>美国社会问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
+  </si>
+  <si>
+    <t>美国社会阶层</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AA%92%E4%BD%93</t>
+  </si>
+  <si>
+    <t>美国媒体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%B0%E9%97%BB%E8%87%AA%E7%94%B1</t>
+  </si>
+  <si>
+    <t>美国新闻自由</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>美国文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
+  </si>
+  <si>
+    <t>美国体育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>美国地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
+  </si>
+  <si>
+    <t>美国交通</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国人口</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>德州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>加州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>犹他州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>纽约州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%90%A8%E8%AF%B8%E5%A1%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>马萨诸塞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>伊利诺伊州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E5%92%8C%E7%94%9F%E8%82%B2%E7%8E%87</t>
-  </si>
-  <si>
-    <t>总和生育率</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%B8%9A%E5%8C%96%E5%9B%BD%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>工业化国家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3%E8%B0%83%E6%9F%A5%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美国人口调查局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E6%95%B0%E6%B0%91%E6%97%8F</t>
-  </si>
-  <si>
-    <t>少数民族</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1890%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
-  </si>
-  <si>
-    <t>美國1890年人口普查</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1900%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
-  </si>
-  <si>
-    <t>美國1900年人口普查</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1910%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
-  </si>
-  <si>
-    <t>美國1910年人口普查</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1920%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
-  </si>
-  <si>
-    <t>美國1920年人口普查</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1930%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
-  </si>
-  <si>
-    <t>美國1930年人口普查</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1940%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
-  </si>
-  <si>
-    <t>美國1940年人口普查</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1950%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
-  </si>
-  <si>
-    <t>美國1950年人口普查</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1960%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
-  </si>
-  <si>
-    <t>美國1960年人口普查</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1970%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
-  </si>
-  <si>
-    <t>美國1970年人口普查</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1980%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
-  </si>
-  <si>
-    <t>美國1980年人口普查</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1990%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
-  </si>
-  <si>
-    <t>美國1990年人口普查</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B2000%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
-  </si>
-  <si>
-    <t>美國2000年人口普查</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B2010%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
-  </si>
-  <si>
-    <t>美國2010年人口普查</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%BA%E7%94%9F%E7%8E%87</t>
-  </si>
-  <si>
-    <t>出生率</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E4%BA%A1%E7%8E%87</t>
-  </si>
-  <si>
-    <t>死亡率</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%80%E8%BF%81%E7%A7%BB%E7%8E%87</t>
-  </si>
-  <si>
-    <t>净迁移率</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%AB%E6%AF%94%E4%BE%8B</t>
-  </si>
-  <si>
-    <t>性别比例</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A9%B4%E5%84%BF%E6%AD%BB%E4%BA%A1%E7%8E%87</t>
-  </si>
-  <si>
-    <t>婴儿死亡率</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%9D%87%E5%A3%BD%E5%91%BD</t>
-  </si>
-  <si>
-    <t>平均壽命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E8%82%B2%E7%8E%87</t>
-  </si>
-  <si>
-    <t>生育率</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%B3%A7%E9%A3%9F%E5%8F%8A%E8%BE%B2%E6%A5%AD%E7%B5%84%E7%B9%94</t>
-  </si>
-  <si>
-    <t>聯合國糧食及農業組織</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8_(%E6%8C%89%E4%BA%BA%E5%8F%A3%E6%8E%92%E5%88%97)</t>
-  </si>
-  <si>
-    <t>美國城市列表 (按人口排列)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%9F%8E%E5%B8%82</t>
-  </si>
-  <si>
-    <t>全球城市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6</t>
-  </si>
-  <si>
-    <t>纽约</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%9F%B6</t>
-  </si>
-  <si>
-    <t>洛杉矶</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5</t>
-  </si>
-  <si>
-    <t>芝加哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
-  </si>
-  <si>
-    <t>紐約市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>紐約州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF</t>
-  </si>
-  <si>
-    <t>洛杉磯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>加利福尼亞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>伊利諾州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E5%A3%AB%E9%A0%93</t>
-  </si>
-  <si>
-    <t>休士頓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>德克薩斯州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%9F%8E</t>
-  </si>
-  <si>
-    <t>費城</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>賓夕法尼亞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%A4%E5%87%B0%E5%9F%8E</t>
-  </si>
-  <si>
-    <t>凤凰城</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>亚利桑那州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%AE%89%E4%B8%9C%E5%B0%BC%E5%A5%A5</t>
-  </si>
-  <si>
-    <t>圣安东尼奥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5_(%E7%BE%8E%E5%9C%8B%E5%8A%A0%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>聖地牙哥 (美國加州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%8B%89%E6%96%AF</t>
-  </si>
-  <si>
-    <t>達拉斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>聖荷西 (加利福尼亞州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%8D%E6%97%8F%E5%8F%8A%E6%B0%91%E6%97%8F</t>
-  </si>
-  <si>
-    <t>美国种族及民族</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%AF%94%E5%88%A9</t>
-  </si>
-  <si>
-    <t>伊比利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>拉丁美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%97%E6%95%99</t>
-  </si>
-  <si>
-    <t>美国宗教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E5%AE%97%E6%95%99</t>
-  </si>
-  <si>
-    <t>基督宗教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%95%99</t>
-  </si>
-  <si>
-    <t>新教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99</t>
-  </si>
-  <si>
-    <t>天主教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%AD%A3%E6%95%99</t>
-  </si>
-  <si>
-    <t>東正教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E5%A4%AA%E6%95%99</t>
-  </si>
-  <si>
-    <t>犹太教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E6%95%99</t>
-  </si>
-  <si>
-    <t>佛教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E6%95%99</t>
-  </si>
-  <si>
-    <t>伊斯兰教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80</t>
-  </si>
-  <si>
-    <t>語言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>英語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>西班牙語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E6%AD%90%E8%AA%9E%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>印歐語系</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B7%E6%80%A7</t>
-  </si>
-  <si>
-    <t>男性</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7</t>
-  </si>
-  <si>
-    <t>女性</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E7%BE%8E%E5%9C%8B%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
-  </si>
-  <si>
-    <t>2010年美國人口普查</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Microsoft_Excel</t>
-  </si>
-  <si>
-    <t>Microsoft Excel</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Central_Intelligence_Agency</t>
-  </si>
-  <si>
-    <t>Central Intelligence Agency</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E6%B4%B2%E9%A2%98%E7%9B%AE</t>
-  </si>
-  <si>
-    <t>Template talk-美洲题目</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>聯合國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>聯合國會員國列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7%E4%BA%BA%E5%8F%A3</t>
-  </si>
-  <si>
-    <t>阿根廷人口</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A9%AC%E4%BA%BA%E5%8F%A3</t>
-  </si>
-  <si>
-    <t>巴哈马人口</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A9%AC%E4%BA%BA%E5%8F%A3</t>
-  </si>
-  <si>
-    <t>巴拿马人口</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E4%BA%BA%E5%8F%A3</t>
-  </si>
-  <si>
-    <t>巴西人口</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81%E4%BA%BA%E5%8F%A3</t>
-  </si>
-  <si>
-    <t>秘鲁人口</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E4%BA%BA%E5%8F%A3</t>
-  </si>
-  <si>
-    <t>哥伦比亚人口</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4%E4%BA%BA%E5%8F%A3</t>
-  </si>
-  <si>
-    <t>古巴人口</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E4%BA%BA%E5%8F%A3</t>
-  </si>
-  <si>
-    <t>加拿大人口</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E4%BA%BA%E5%8F%A3</t>
-  </si>
-  <si>
-    <t>墨西哥人口</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%9E%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>属地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
-  </si>
-  <si>
-    <t>美國社會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>美国文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>美国政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>美国教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B6%93%E6%BF%9F</t>
-  </si>
-  <si>
-    <t>美國經濟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>美國醫療系統</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8A%82%E6%97%A5</t>
-  </si>
-  <si>
-    <t>美国节日</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%AF%AD%E8%A8%80</t>
-  </si>
-  <si>
-    <t>美国语言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA%E6%AC%8A</t>
-  </si>
-  <si>
-    <t>美國人權</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E5%95%8F%E9%A1%8C</t>
-  </si>
-  <si>
-    <t>美國社會問題</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
-  </si>
-  <si>
-    <t>美國社會階層</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AA%92%E4%BD%93</t>
-  </si>
-  <si>
-    <t>美国媒体</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%B0%E9%97%BB%E8%87%AA%E7%94%B1</t>
-  </si>
-  <si>
-    <t>美国新闻自由</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>美国文学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
-  </si>
-  <si>
-    <t>美国体育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>美國地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
-  </si>
-  <si>
-    <t>美國交通</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -990,7 +993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2143,7 +2146,7 @@
         <v>79</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2169,10 +2172,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2198,10 +2201,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>3</v>
@@ -2227,10 +2230,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2256,10 +2259,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2285,10 +2288,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>3</v>
@@ -2314,10 +2317,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2343,10 +2346,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2372,10 +2375,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2401,10 +2404,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2430,10 +2433,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2459,10 +2462,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2488,10 +2491,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2517,10 +2520,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2546,10 +2549,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2575,10 +2578,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2604,10 +2607,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2633,10 +2636,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -2662,10 +2665,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2691,10 +2694,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2720,10 +2723,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2749,10 +2752,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2778,10 +2781,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2807,10 +2810,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2836,10 +2839,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2865,10 +2868,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>5</v>
@@ -2894,10 +2897,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2923,10 +2926,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2952,10 +2955,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2981,10 +2984,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>11</v>
@@ -3010,10 +3013,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>13</v>
@@ -3039,10 +3042,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3068,10 +3071,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3097,10 +3100,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>10</v>
@@ -3126,10 +3129,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>4</v>
@@ -3155,10 +3158,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>4</v>
@@ -3184,10 +3187,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3213,10 +3216,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3242,10 +3245,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3271,10 +3274,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3300,10 +3303,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3329,10 +3332,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3358,10 +3361,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3387,10 +3390,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3416,10 +3419,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3445,10 +3448,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3474,10 +3477,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3503,10 +3506,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3532,10 +3535,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>3</v>
@@ -3561,10 +3564,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3590,10 +3593,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3619,10 +3622,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3648,10 +3651,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3677,10 +3680,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3706,10 +3709,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3735,10 +3738,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3764,10 +3767,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3793,10 +3796,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3822,10 +3825,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3851,10 +3854,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3880,10 +3883,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F100" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -3909,10 +3912,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F101" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -3938,10 +3941,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -3967,10 +3970,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -3996,18 +3999,76 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>205</v>
+      </c>
+      <c r="F104" t="s">
+        <v>206</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1</v>
+      </c>
+      <c r="H104" t="s">
+        <v>4</v>
+      </c>
+      <c r="I104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1</v>
+      </c>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
         <v>207</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F105" t="s">
         <v>208</v>
       </c>
-      <c r="G104" t="n">
-        <v>1</v>
-      </c>
-      <c r="H104" t="s">
-        <v>4</v>
-      </c>
-      <c r="I104" t="n">
+      <c r="G105" t="n">
+        <v>12</v>
+      </c>
+      <c r="H105" t="s">
+        <v>4</v>
+      </c>
+      <c r="I105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1</v>
+      </c>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>207</v>
+      </c>
+      <c r="F106" t="s">
+        <v>209</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H106" t="s">
+        <v>4</v>
+      </c>
+      <c r="I106" t="n">
         <v>3</v>
       </c>
     </row>
